--- a/HW_Banduliak.xlsx
+++ b/HW_Banduliak.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
   <si>
     <t>Составьте таблицы для хранения сведений об общественном транспорте.</t>
   </si>
@@ -25,13 +25,235 @@
   </si>
   <si>
     <t>— При составлении таблиц не берите слишком много сущностей. Ориентируйтесь на структуру типа: «У нас есть автобусы на разных маршрутах, у автобуса есть водитель, также в автобусе работает кондуктор». Более сложные/глубокие структуры пока лучше не брать.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>№ маршрута</t>
+  </si>
+  <si>
+    <t>Гос.номер</t>
+  </si>
+  <si>
+    <t>Общественный транспорт</t>
+  </si>
+  <si>
+    <t>m1</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>m4</t>
+  </si>
+  <si>
+    <t>m5</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>Характеристика ТС</t>
+  </si>
+  <si>
+    <t>код класса</t>
+  </si>
+  <si>
+    <t>Назначение</t>
+  </si>
+  <si>
+    <t>Марка ТС</t>
+  </si>
+  <si>
+    <t>Цвет</t>
+  </si>
+  <si>
+    <t>Городской</t>
+  </si>
+  <si>
+    <t>городской</t>
+  </si>
+  <si>
+    <t>пригородный</t>
+  </si>
+  <si>
+    <t>желтый</t>
+  </si>
+  <si>
+    <t>Турестический</t>
+  </si>
+  <si>
+    <t>класс ТС</t>
+  </si>
+  <si>
+    <t>марка1</t>
+  </si>
+  <si>
+    <t>марка2</t>
+  </si>
+  <si>
+    <t>марка3</t>
+  </si>
+  <si>
+    <t>марка4</t>
+  </si>
+  <si>
+    <t>белый</t>
+  </si>
+  <si>
+    <t>серый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">красный </t>
+  </si>
+  <si>
+    <t>Установлен терминал оплаты</t>
+  </si>
+  <si>
+    <t>терминал для</t>
+  </si>
+  <si>
+    <t>марка терминала</t>
+  </si>
+  <si>
+    <t>Год выпуска</t>
+  </si>
+  <si>
+    <t>дата установки</t>
+  </si>
+  <si>
+    <t>Дата проверки</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>model-1</t>
+  </si>
+  <si>
+    <t>model-2</t>
+  </si>
+  <si>
+    <t>model-3</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>xl</t>
+  </si>
+  <si>
+    <t>Кондукторы</t>
+  </si>
+  <si>
+    <t>Кондуктор маршрута</t>
+  </si>
+  <si>
+    <t>ФИО</t>
+  </si>
+  <si>
+    <t>Табельный номер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мед.комиссия </t>
+  </si>
+  <si>
+    <t>допущен</t>
+  </si>
+  <si>
+    <t>fio1</t>
+  </si>
+  <si>
+    <t>fio 2</t>
+  </si>
+  <si>
+    <t>fio 3</t>
+  </si>
+  <si>
+    <t>fio4</t>
+  </si>
+  <si>
+    <t>fio 5</t>
+  </si>
+  <si>
+    <t>fio 6</t>
+  </si>
+  <si>
+    <t>fio 7</t>
+  </si>
+  <si>
+    <t>fio 8</t>
+  </si>
+  <si>
+    <t>fio 9</t>
+  </si>
+  <si>
+    <t>fio 10</t>
+  </si>
+  <si>
+    <t>Водители</t>
+  </si>
+  <si>
+    <t>Водитель маршрута</t>
+  </si>
+  <si>
+    <t>fio2</t>
+  </si>
+  <si>
+    <t>fio3</t>
+  </si>
+  <si>
+    <t>fio5</t>
+  </si>
+  <si>
+    <t>fio6</t>
+  </si>
+  <si>
+    <t>fio7</t>
+  </si>
+  <si>
+    <t>fio8</t>
+  </si>
+  <si>
+    <t>fio9</t>
+  </si>
+  <si>
+    <t>fio10</t>
+  </si>
+  <si>
+    <t>Действие ВУ (до)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мед. комиссия </t>
+  </si>
+  <si>
+    <t xml:space="preserve">бессрочные </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,15 +264,36 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="12"/>
       <color rgb="FF2C2D30"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -63,7 +306,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -71,19 +314,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -386,39 +698,668 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.90625" customWidth="1"/>
+    <col min="1" max="1" width="28.90625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="18" style="6" customWidth="1"/>
+    <col min="6" max="6" width="17.36328125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="18.6328125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.90625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="11.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.08984375" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="39" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" ht="45" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="7"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:1" ht="117.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" ht="180.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="P7" s="11"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="I9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="30" x14ac:dyDescent="0.35">
+      <c r="B12" s="14">
+        <v>1</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B13" s="15">
+        <v>2</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="14">
+        <v>1</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="15">
+        <v>10001</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B14" s="15">
+        <v>3</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="15">
+        <v>1</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" s="15">
+        <v>10002</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B15" s="15">
+        <v>4</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="15">
+        <v>2</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="15">
+        <v>10003</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B16" s="15">
+        <v>5</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="15">
+        <v>2</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="15">
+        <v>10004</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="I17" s="15">
+        <v>3</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" s="15">
+        <v>10005</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="I18" s="15">
+        <v>3</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18" s="15">
+        <v>10006</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="I19" s="15">
+        <v>4</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K19" s="15">
+        <v>10007</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="I20" s="15">
+        <v>4</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="K20" s="15">
+        <v>10008</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="I21" s="15">
+        <v>5</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="K21" s="15">
+        <v>10009</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="30" x14ac:dyDescent="0.35">
+      <c r="B22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="15">
+        <v>5</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22" s="15">
+        <v>10010</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B23" s="15">
+        <v>3</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="15">
+        <v>2019</v>
+      </c>
+      <c r="E23" s="16">
+        <v>43490</v>
+      </c>
+      <c r="F23" s="16">
+        <v>43493</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B24" s="15">
+        <v>3</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="15">
+        <v>2021</v>
+      </c>
+      <c r="E24" s="16">
+        <v>44359</v>
+      </c>
+      <c r="F24" s="16">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B25" s="15">
+        <v>5</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="15">
+        <v>2022</v>
+      </c>
+      <c r="E25" s="16">
+        <v>44622</v>
+      </c>
+      <c r="F25" s="16">
+        <v>44625</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="I26" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J26" s="19"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B28" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="20"/>
+    </row>
+    <row r="29" spans="2:13" ht="31" x14ac:dyDescent="0.35">
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="I29" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="L29" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="M29" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K30" s="2">
+        <v>101</v>
+      </c>
+      <c r="L30" s="3">
+        <v>49485</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B31" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K31" s="2">
+        <v>102</v>
+      </c>
+      <c r="L31" s="3">
+        <v>46815</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B32" s="15">
+        <v>1</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" s="2">
+        <v>2</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K32" s="2">
+        <v>103</v>
+      </c>
+      <c r="L32" s="3">
+        <v>47306</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B33" s="15">
+        <v>2</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" s="2">
+        <v>2</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K33" s="2">
+        <v>104</v>
+      </c>
+      <c r="L33" s="3">
+        <v>49163</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B34" s="15">
+        <v>3</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" s="2">
+        <v>3</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K34" s="2">
+        <v>105</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B35" s="15">
+        <v>4</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" s="2">
+        <v>3</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K35" s="2">
+        <v>106</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B36" s="15">
+        <v>5</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36" s="2">
+        <v>4</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K36" s="2">
+        <v>107</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="I37" s="2">
+        <v>4</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K37" s="2">
+        <v>108</v>
+      </c>
+      <c r="L37" s="3">
+        <v>47920</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="I38" s="2">
+        <v>5</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K38" s="2">
+        <v>109</v>
+      </c>
+      <c r="L38" s="3">
+        <v>47339</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="I39" s="2">
+        <v>5</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1010</v>
+      </c>
+      <c r="L39" s="3">
+        <v>50040</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="I26:J27"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="B28:C29"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="B8:C9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
